--- a/WorkLogDominik.xlsx
+++ b/WorkLogDominik.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_5\FH_BIF5_CGRMR_OpenGL-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B5610-9E0D-49B9-B53F-5E202E1D5E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108EE494-E918-4DCB-812B-5BF80082ECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
-  <si>
-    <t>Flo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Kini</t>
   </si>
   <si>
-    <t>Vinc</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
-    <t>Project setup</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -52,9 +40,6 @@
   </si>
   <si>
     <t>Moving Cube on Grid</t>
-  </si>
-  <si>
-    <t>fixing ref / dependency issues of poppinger</t>
   </si>
   <si>
     <t>3h</t>
@@ -99,7 +84,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,13 +365,14 @@
   <dimension ref="B1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
@@ -398,40 +384,16 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -441,27 +403,10 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
-        <v>45677</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="D3" s="2">
         <v>45678</v>
       </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>45678</v>
-      </c>
+      <c r="L3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkLogDominik.xlsx
+++ b/WorkLogDominik.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\FH_BIF5_CGRMR_OpenGL-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_5\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108EE494-E918-4DCB-812B-5BF80082ECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE1FAB-3875-4798-8D02-8AA1D866C5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Kini</t>
   </si>
@@ -42,7 +42,13 @@
     <t>Moving Cube on Grid</t>
   </si>
   <si>
-    <t>3h</t>
+    <t>Snake class</t>
+  </si>
+  <si>
+    <t>Fruit class + collect</t>
+  </si>
+  <si>
+    <t>Snake growth</t>
   </si>
 </sst>
 </file>
@@ -84,7 +90,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,13 +368,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L3"/>
+  <dimension ref="B1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
@@ -400,13 +406,43 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>45678</v>
       </c>
       <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45678</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkLogDominik.xlsx
+++ b/WorkLogDominik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_5\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE1FAB-3875-4798-8D02-8AA1D866C5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50049E67-9B1A-42E1-9276-B3DC1D3C8C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Kini</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Snake growth</t>
+  </si>
+  <si>
+    <t>Input improved (no 180)</t>
   </si>
 </sst>
 </file>
@@ -84,10 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,17 +372,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L6"/>
+  <dimension ref="B1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
@@ -412,6 +417,11 @@
       <c r="D3" s="2">
         <v>45678</v>
       </c>
+      <c r="E3" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -424,6 +434,9 @@
       <c r="D4" s="2">
         <v>45678</v>
       </c>
+      <c r="E4" s="3">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -435,13 +448,36 @@
       <c r="D5" s="2">
         <v>45678</v>
       </c>
+      <c r="E5" s="3">
+        <v>0.83333333333333337</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6" s="2">
         <v>45678</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45678</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.89583333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/WorkLogDominik.xlsx
+++ b/WorkLogDominik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_5\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50049E67-9B1A-42E1-9276-B3DC1D3C8C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE48B10-7C69-4BD1-A707-54F59D8F36C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Kini</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Input improved (no 180)</t>
+  </si>
+  <si>
+    <t>Snake shape</t>
+  </si>
+  <si>
+    <t>Start</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,6 +412,9 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -478,6 +487,20 @@
       </c>
       <c r="E7" s="3">
         <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45679</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
   </sheetData>

--- a/WorkLogDominik.xlsx
+++ b/WorkLogDominik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_5\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE48B10-7C69-4BD1-A707-54F59D8F36C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193F88C5-48C1-4204-BE99-88BF5403EA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Kini</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Start</t>
+  </si>
+  <si>
+    <t>Snake collision with self</t>
+  </si>
+  <si>
+    <t>Tail Drawing</t>
+  </si>
+  <si>
+    <t>30min Pause</t>
   </si>
 </sst>
 </file>
@@ -378,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L8"/>
+  <dimension ref="B1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +455,9 @@
       <c r="E4" s="3">
         <v>0.8125</v>
       </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -458,7 +470,7 @@
         <v>45678</v>
       </c>
       <c r="E5" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -466,13 +478,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="2">
         <v>45678</v>
       </c>
       <c r="E6" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -501,6 +513,37 @@
       </c>
       <c r="E8" s="3">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45679</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45679</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.8125</v>
       </c>
     </row>
   </sheetData>

--- a/WorkLogDominik.xlsx
+++ b/WorkLogDominik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_5\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193F88C5-48C1-4204-BE99-88BF5403EA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74993E47-B0B6-46CE-AF12-46BEF6C0E44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Kini</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>30min Pause</t>
+  </si>
+  <si>
+    <t>Texture Loading</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L10"/>
+  <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +549,20 @@
         <v>0.8125</v>
       </c>
     </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45679</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogDominik.xlsx
+++ b/WorkLogDominik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_5\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74993E47-B0B6-46CE-AF12-46BEF6C0E44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D33123F-7CC6-474F-B659-9D2D034B900C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Kini</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Texture Loading</t>
+  </si>
+  <si>
+    <t>The Cherno Textures</t>
+  </si>
+  <si>
+    <t>Snake Texture</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L11"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +569,53 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45680</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45680</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45680</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogDominik.xlsx
+++ b/WorkLogDominik.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_5\FH_BIF5_CGRMR_OpenGL-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D33123F-7CC6-474F-B659-9D2D034B900C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60905220-80E3-40F6-AF4A-C671948C52E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Kini</t>
   </si>
@@ -43,9 +54,6 @@
   </si>
   <si>
     <t>Snake class</t>
-  </si>
-  <si>
-    <t>Fruit class + collect</t>
   </si>
   <si>
     <t>Snake growth</t>
@@ -118,7 +126,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,18 +404,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L15"/>
+  <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
@@ -431,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -465,7 +473,7 @@
         <v>0.8125</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -473,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>45678</v>
@@ -493,7 +501,7 @@
         <v>45678</v>
       </c>
       <c r="E6" s="3">
-        <v>0.875</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -501,18 +509,18 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="E7" s="3">
-        <v>0.89583333333333337</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -521,7 +529,10 @@
         <v>45679</v>
       </c>
       <c r="E8" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>0.75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -529,44 +540,41 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="2">
         <v>45679</v>
       </c>
       <c r="E9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
         <v>45679</v>
       </c>
       <c r="E10" s="3">
-        <v>0.8125</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="E11" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -574,49 +582,36 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
         <v>45680</v>
       </c>
       <c r="E12" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
         <v>45680</v>
       </c>
       <c r="E13" s="3">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45680</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WorkLogDominik.xlsx
+++ b/WorkLogDominik.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FH_BIF5_CGRMR_OpenGL-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_5\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60905220-80E3-40F6-AF4A-C671948C52E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E5E58B-0EF7-4CE4-869F-1444B639D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="615" windowWidth="21630" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Kini</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Snake Texture</t>
+  </si>
+  <si>
+    <t>Fruit Icons loading</t>
+  </si>
+  <si>
+    <t>Finalize</t>
   </si>
 </sst>
 </file>
@@ -126,7 +132,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L14"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
@@ -609,6 +615,46 @@
       <c r="B14" t="s">
         <v>15</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45680</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45680</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45680</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.875</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
